--- a/bsa - metrics data.xlsx
+++ b/bsa - metrics data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\bsa-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C305C8D-60E1-45EB-B760-036A8A1E5059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707008CE-37AE-43B4-9351-F6C96F9DE6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{011EEE82-27A8-4D35-ACB3-E0118E4D60F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{011EEE82-27A8-4D35-ACB3-E0118E4D60F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16685,7 +16685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25295872-81C4-47AA-A965-640145705D07}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -17582,7 +17582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39EF0AC-EE06-40B3-9DA2-00FCDB03E711}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -18551,7 +18551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B519B-9C0B-4061-8057-F93E81D92D86}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
